--- a/biology/Médecine/Tacalcitol/Tacalcitol.xlsx
+++ b/biology/Médecine/Tacalcitol/Tacalcitol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le tacalcitol est un médicament, analogue de synthèse de la vitamine D3[1] et vendu entre autres sous les marques Curatoderm[1],[2],[3].
+Le tacalcitol est un médicament, analogue de synthèse de la vitamine D3 et vendu entre autres sous les marques Curatoderm.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tacalcitol est un médicament utilisé pour traiter le psoriasis, plus précisément le psoriasis en plaques. Il est appliqué sur la peau une à deux fois par jour[2],[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tacalcitol est un médicament utilisé pour traiter le psoriasis, plus précisément le psoriasis en plaques. Il est appliqué sur la peau une à deux fois par jour.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires peuvent inclure des éruptions cutanées et une teneur élevée en calcium[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires peuvent inclure des éruptions cutanées et une teneur élevée en calcium.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tacalcitol est approuvé pour un usage médical au Japon en 1993. Il figure sur la liste des médicaments essentiels de l'Organisation mondiale de la santé comme alternative au calcipotriol. Au Royaume-Uni, 30 grammes coûtent au NHS environ 13 livres sterling en 2023[4],[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tacalcitol est approuvé pour un usage médical au Japon en 1993. Il figure sur la liste des médicaments essentiels de l'Organisation mondiale de la santé comme alternative au calcipotriol. Au Royaume-Uni, 30 grammes coûtent au NHS environ 13 livres sterling en 2023.
 </t>
         </is>
       </c>
